--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_go.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_go.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B81573-F2D3-4A8B-AFE7-E7C1AE81A3CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C653A0FF-28BA-0C47-863A-0522262DEDAD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1511,16 +1511,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1544,9 +1538,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1852,21 +1845,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D252"/>
+  <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E249" sqref="E249"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="A248" sqref="A248:D260"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>491</v>
       </c>
@@ -1880,7 +1873,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>5200050</v>
       </c>
@@ -1891,7 +1884,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5200100</v>
       </c>
@@ -1902,7 +1895,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>5200134</v>
       </c>
@@ -1913,7 +1906,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5200159</v>
       </c>
@@ -1924,7 +1917,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5200175</v>
       </c>
@@ -1935,7 +1928,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5200209</v>
       </c>
@@ -1946,7 +1939,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5200258</v>
       </c>
@@ -1957,7 +1950,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5200308</v>
       </c>
@@ -1968,7 +1961,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>5200506</v>
       </c>
@@ -1979,7 +1972,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>5200555</v>
       </c>
@@ -1990,7 +1983,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>5200605</v>
       </c>
@@ -2001,7 +1994,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5200803</v>
       </c>
@@ -2012,7 +2005,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5200829</v>
       </c>
@@ -2023,7 +2016,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>5200852</v>
       </c>
@@ -2034,7 +2027,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>5200902</v>
       </c>
@@ -2045,7 +2038,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5201108</v>
       </c>
@@ -2056,7 +2049,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5201207</v>
       </c>
@@ -2067,7 +2060,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5201306</v>
       </c>
@@ -2078,7 +2071,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5201405</v>
       </c>
@@ -2089,7 +2082,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5201454</v>
       </c>
@@ -2100,7 +2093,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>5201504</v>
       </c>
@@ -2111,7 +2104,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5201603</v>
       </c>
@@ -2122,7 +2115,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5201702</v>
       </c>
@@ -2133,7 +2126,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5201801</v>
       </c>
@@ -2144,7 +2137,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5202155</v>
       </c>
@@ -2155,7 +2148,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5202353</v>
       </c>
@@ -2166,7 +2159,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5202502</v>
       </c>
@@ -2177,7 +2170,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5202601</v>
       </c>
@@ -2188,7 +2181,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5202809</v>
       </c>
@@ -2199,7 +2192,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5203104</v>
       </c>
@@ -2210,7 +2203,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5203203</v>
       </c>
@@ -2221,7 +2214,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5203302</v>
       </c>
@@ -2232,7 +2225,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5203401</v>
       </c>
@@ -2243,7 +2236,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>5203500</v>
       </c>
@@ -2254,7 +2247,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5203559</v>
       </c>
@@ -2265,7 +2258,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5203575</v>
       </c>
@@ -2276,7 +2269,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5203609</v>
       </c>
@@ -2287,7 +2280,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5203807</v>
       </c>
@@ -2298,7 +2291,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5203906</v>
       </c>
@@ -2309,7 +2302,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5203939</v>
       </c>
@@ -2320,7 +2313,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5203962</v>
       </c>
@@ -2331,7 +2324,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5204003</v>
       </c>
@@ -2342,7 +2335,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5204102</v>
       </c>
@@ -2353,7 +2346,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5204201</v>
       </c>
@@ -2364,7 +2357,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>5204250</v>
       </c>
@@ -2375,7 +2368,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>5204300</v>
       </c>
@@ -2386,7 +2379,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5204409</v>
       </c>
@@ -2397,7 +2390,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>5204508</v>
       </c>
@@ -2408,7 +2401,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>5204557</v>
       </c>
@@ -2419,7 +2412,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>5204607</v>
       </c>
@@ -2430,7 +2423,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>5204656</v>
       </c>
@@ -2441,7 +2434,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>5204706</v>
       </c>
@@ -2452,7 +2445,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>5204805</v>
       </c>
@@ -2463,7 +2456,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5204854</v>
       </c>
@@ -2474,7 +2467,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>5204904</v>
       </c>
@@ -2485,7 +2478,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>5204953</v>
       </c>
@@ -2496,7 +2489,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>5205000</v>
       </c>
@@ -2507,7 +2500,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>5205059</v>
       </c>
@@ -2518,7 +2511,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5205109</v>
       </c>
@@ -2529,7 +2522,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5205208</v>
       </c>
@@ -2540,7 +2533,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>5205307</v>
       </c>
@@ -2551,7 +2544,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>5205406</v>
       </c>
@@ -2562,7 +2555,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>5205455</v>
       </c>
@@ -2573,7 +2566,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>5205471</v>
       </c>
@@ -2584,7 +2577,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>5205497</v>
       </c>
@@ -2595,7 +2588,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>5205513</v>
       </c>
@@ -2606,7 +2599,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>5205521</v>
       </c>
@@ -2617,7 +2610,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>5205703</v>
       </c>
@@ -2628,7 +2621,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>5205802</v>
       </c>
@@ -2639,7 +2632,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>5205901</v>
       </c>
@@ -2650,7 +2643,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5206206</v>
       </c>
@@ -2661,7 +2654,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>5206305</v>
       </c>
@@ -2672,7 +2665,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>5206404</v>
       </c>
@@ -2683,7 +2676,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>5206503</v>
       </c>
@@ -2694,7 +2687,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>5206602</v>
       </c>
@@ -2705,7 +2698,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5206701</v>
       </c>
@@ -2716,7 +2709,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>5206800</v>
       </c>
@@ -2727,7 +2720,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>5206909</v>
       </c>
@@ -2738,7 +2731,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>5207105</v>
       </c>
@@ -2749,7 +2742,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>5207253</v>
       </c>
@@ -2760,7 +2753,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>5207352</v>
       </c>
@@ -2771,7 +2764,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>5207402</v>
       </c>
@@ -2782,7 +2775,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>5207501</v>
       </c>
@@ -2793,7 +2786,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>5207535</v>
       </c>
@@ -2804,7 +2797,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>5207600</v>
       </c>
@@ -2815,7 +2808,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>5207808</v>
       </c>
@@ -2826,7 +2819,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5207907</v>
       </c>
@@ -2837,7 +2830,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>5208004</v>
       </c>
@@ -2848,7 +2841,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>5208103</v>
       </c>
@@ -2859,7 +2852,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>5208152</v>
       </c>
@@ -2870,7 +2863,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>5208301</v>
       </c>
@@ -2881,7 +2874,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>5208400</v>
       </c>
@@ -2892,7 +2885,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>5208509</v>
       </c>
@@ -2903,7 +2896,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>5208608</v>
       </c>
@@ -2914,7 +2907,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5208707</v>
       </c>
@@ -2925,7 +2918,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>5208806</v>
       </c>
@@ -2936,7 +2929,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>5208905</v>
       </c>
@@ -2947,7 +2940,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>5209101</v>
       </c>
@@ -2958,7 +2951,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>5209150</v>
       </c>
@@ -2969,7 +2962,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>5209200</v>
       </c>
@@ -2980,7 +2973,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>5209291</v>
       </c>
@@ -2991,7 +2984,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>5209408</v>
       </c>
@@ -3002,7 +2995,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>5209457</v>
       </c>
@@ -3013,7 +3006,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>5209606</v>
       </c>
@@ -3024,7 +3017,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>5209705</v>
       </c>
@@ -3035,7 +3028,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>5209804</v>
       </c>
@@ -3046,7 +3039,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>5209903</v>
       </c>
@@ -3057,7 +3050,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>5209937</v>
       </c>
@@ -3068,7 +3061,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5209952</v>
       </c>
@@ -3079,7 +3072,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>5210000</v>
       </c>
@@ -3090,7 +3083,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>5210109</v>
       </c>
@@ -3101,7 +3094,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>5210158</v>
       </c>
@@ -3112,7 +3105,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>5210208</v>
       </c>
@@ -3123,7 +3116,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>5210307</v>
       </c>
@@ -3134,7 +3127,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>5210406</v>
       </c>
@@ -3145,7 +3138,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>5210562</v>
       </c>
@@ -3156,7 +3149,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>5210604</v>
       </c>
@@ -3167,7 +3160,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>5210802</v>
       </c>
@@ -3178,7 +3171,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>5210901</v>
       </c>
@@ -3189,7 +3182,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>5211008</v>
       </c>
@@ -3200,7 +3193,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>5211206</v>
       </c>
@@ -3211,7 +3204,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>5211305</v>
       </c>
@@ -3222,7 +3215,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>5211404</v>
       </c>
@@ -3233,7 +3226,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>5211503</v>
       </c>
@@ -3244,7 +3237,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5211602</v>
       </c>
@@ -3255,7 +3248,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>5211701</v>
       </c>
@@ -3266,7 +3259,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>5211800</v>
       </c>
@@ -3277,7 +3270,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>5211909</v>
       </c>
@@ -3288,7 +3281,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>5212006</v>
       </c>
@@ -3299,7 +3292,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>5212055</v>
       </c>
@@ -3310,7 +3303,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>5212105</v>
       </c>
@@ -3321,7 +3314,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>5212204</v>
       </c>
@@ -3332,7 +3325,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>5212253</v>
       </c>
@@ -3343,7 +3336,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>5212303</v>
       </c>
@@ -3354,7 +3347,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>5212501</v>
       </c>
@@ -3365,7 +3358,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>5212600</v>
       </c>
@@ -3376,7 +3369,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>5212709</v>
       </c>
@@ -3387,7 +3380,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>5212808</v>
       </c>
@@ -3398,7 +3391,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>5212907</v>
       </c>
@@ -3409,7 +3402,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>5212956</v>
       </c>
@@ -3420,7 +3413,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>5213004</v>
       </c>
@@ -3431,7 +3424,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>5213053</v>
       </c>
@@ -3442,7 +3435,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>5213087</v>
       </c>
@@ -3453,7 +3446,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>5213103</v>
       </c>
@@ -3464,7 +3457,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>5213400</v>
       </c>
@@ -3475,7 +3468,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>5213509</v>
       </c>
@@ -3486,7 +3479,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>5213707</v>
       </c>
@@ -3497,7 +3490,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>5213756</v>
       </c>
@@ -3508,7 +3501,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>5213772</v>
       </c>
@@ -3519,7 +3512,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>5213806</v>
       </c>
@@ -3530,7 +3523,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>5213855</v>
       </c>
@@ -3541,7 +3534,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>5213905</v>
       </c>
@@ -3552,7 +3545,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>5214002</v>
       </c>
@@ -3563,7 +3556,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>5214051</v>
       </c>
@@ -3574,7 +3567,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>5214101</v>
       </c>
@@ -3585,7 +3578,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>5214408</v>
       </c>
@@ -3596,7 +3589,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>5214507</v>
       </c>
@@ -3607,7 +3600,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>5214606</v>
       </c>
@@ -3618,7 +3611,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>5214705</v>
       </c>
@@ -3629,7 +3622,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>5214804</v>
       </c>
@@ -3640,7 +3633,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>5214838</v>
       </c>
@@ -3651,7 +3644,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>5214861</v>
       </c>
@@ -3662,7 +3655,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>5214879</v>
       </c>
@@ -3673,7 +3666,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>5214903</v>
       </c>
@@ -3684,7 +3677,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>5215009</v>
       </c>
@@ -3695,7 +3688,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>5215207</v>
       </c>
@@ -3706,7 +3699,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>5215231</v>
       </c>
@@ -3717,7 +3710,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>5215256</v>
       </c>
@@ -3728,7 +3721,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>5215306</v>
       </c>
@@ -3739,7 +3732,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>5215405</v>
       </c>
@@ -3750,7 +3743,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>5215504</v>
       </c>
@@ -3761,7 +3754,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>5215603</v>
       </c>
@@ -3772,7 +3765,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>5215652</v>
       </c>
@@ -3783,7 +3776,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>5215702</v>
       </c>
@@ -3794,7 +3787,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>5215801</v>
       </c>
@@ -3805,7 +3798,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>5215900</v>
       </c>
@@ -3816,7 +3809,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>5216007</v>
       </c>
@@ -3827,7 +3820,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>5216304</v>
       </c>
@@ -3838,7 +3831,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>5216403</v>
       </c>
@@ -3849,7 +3842,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>5216452</v>
       </c>
@@ -3860,7 +3853,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>5216809</v>
       </c>
@@ -3871,7 +3864,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>5216908</v>
       </c>
@@ -3882,7 +3875,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>5217104</v>
       </c>
@@ -3893,7 +3886,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>5217203</v>
       </c>
@@ -3904,7 +3897,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>5217302</v>
       </c>
@@ -3915,7 +3908,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>5217401</v>
       </c>
@@ -3926,7 +3919,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>5217609</v>
       </c>
@@ -3937,7 +3930,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>5217708</v>
       </c>
@@ -3948,7 +3941,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>5218003</v>
       </c>
@@ -3959,7 +3952,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>5218052</v>
       </c>
@@ -3970,7 +3963,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>5218102</v>
       </c>
@@ -3981,7 +3974,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>5218300</v>
       </c>
@@ -3992,7 +3985,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>5218391</v>
       </c>
@@ -4003,7 +3996,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>5218508</v>
       </c>
@@ -4014,7 +4007,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>5218607</v>
       </c>
@@ -4025,7 +4018,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>5218706</v>
       </c>
@@ -4036,7 +4029,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>5218789</v>
       </c>
@@ -4047,7 +4040,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>5218805</v>
       </c>
@@ -4058,7 +4051,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>5218904</v>
       </c>
@@ -4069,7 +4062,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>5219001</v>
       </c>
@@ -4080,7 +4073,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>5219100</v>
       </c>
@@ -4091,7 +4084,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>5219209</v>
       </c>
@@ -4102,7 +4095,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>5219258</v>
       </c>
@@ -4113,7 +4106,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>5219308</v>
       </c>
@@ -4124,7 +4117,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>5219357</v>
       </c>
@@ -4135,7 +4128,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>5219407</v>
       </c>
@@ -4146,7 +4139,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>5219456</v>
       </c>
@@ -4157,7 +4150,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>5219506</v>
       </c>
@@ -4168,7 +4161,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>5219605</v>
       </c>
@@ -4179,7 +4172,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>5219704</v>
       </c>
@@ -4190,7 +4183,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>5219712</v>
       </c>
@@ -4201,7 +4194,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>5219738</v>
       </c>
@@ -4212,7 +4205,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>5219753</v>
       </c>
@@ -4223,7 +4216,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>5219803</v>
       </c>
@@ -4234,7 +4227,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>5219902</v>
       </c>
@@ -4245,7 +4238,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>5220009</v>
       </c>
@@ -4256,7 +4249,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>5220058</v>
       </c>
@@ -4267,7 +4260,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>5220108</v>
       </c>
@@ -4278,7 +4271,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>5220157</v>
       </c>
@@ -4289,7 +4282,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>5220207</v>
       </c>
@@ -4300,7 +4293,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>5220264</v>
       </c>
@@ -4311,7 +4304,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>5220280</v>
       </c>
@@ -4322,7 +4315,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>5220405</v>
       </c>
@@ -4333,7 +4326,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>5220454</v>
       </c>
@@ -4344,7 +4337,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>5220504</v>
       </c>
@@ -4355,7 +4348,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>5220603</v>
       </c>
@@ -4366,7 +4359,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>5220686</v>
       </c>
@@ -4377,7 +4370,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>5220702</v>
       </c>
@@ -4388,7 +4381,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>5221007</v>
       </c>
@@ -4399,7 +4392,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>5221080</v>
       </c>
@@ -4410,7 +4403,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>5221197</v>
       </c>
@@ -4421,7 +4414,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>5221304</v>
       </c>
@@ -4432,7 +4425,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>5221403</v>
       </c>
@@ -4443,7 +4436,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>5221452</v>
       </c>
@@ -4454,7 +4447,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>5221502</v>
       </c>
@@ -4465,7 +4458,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>5221551</v>
       </c>
@@ -4476,7 +4469,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>5221577</v>
       </c>
@@ -4487,7 +4480,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>5221601</v>
       </c>
@@ -4498,7 +4491,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>5221700</v>
       </c>
@@ -4509,7 +4502,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>5221809</v>
       </c>
@@ -4520,7 +4513,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>5221858</v>
       </c>
@@ -4531,7 +4524,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>5221908</v>
       </c>
@@ -4542,7 +4535,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>5222005</v>
       </c>
@@ -4553,7 +4546,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>5222054</v>
       </c>
@@ -4564,7 +4557,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>5222203</v>
       </c>
@@ -4575,7 +4568,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>5222302</v>
       </c>
@@ -4585,9 +4578,6 @@
       <c r="C247" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B252" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
